--- a/Daten/Dictionaries/Dictionary asdasdf.xlsx
+++ b/Daten/Dictionaries/Dictionary asdasdf.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Valentin/Documents/DA/Text-Ming-Dashboard/Daten/Dictionaries/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1E04DC-5FAA-5344-9D3F-0CDD0DD0C9C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13120" windowHeight="6100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Wordasd</t>
   </si>
@@ -22,19 +30,15 @@
   <si>
     <t>chose</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -45,7 +49,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -63,38 +67,326 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Daten/Dictionaries/Dictionary asdasdf.xlsx
+++ b/Daten/Dictionaries/Dictionary asdasdf.xlsx
@@ -1,40 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jani\Documents\R Hausaufgabe\Daten\Dictionaries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDFD245-A130-4FB2-A8F1-B407DAD33B3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">X1</t>
+    <t>Guitar</t>
   </si>
   <si>
-    <t xml:space="preserve">Guitar</t>
+    <t>Valli</t>
   </si>
   <si>
-    <t xml:space="preserve">Valli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blubbeladf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chose</t>
+    <t>Blubbeladf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -63,13 +64,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,40 +362,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Daten/Dictionaries/Dictionary asdasdf.xlsx
+++ b/Daten/Dictionaries/Dictionary asdasdf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jani\Documents\R Hausaufgabe\Daten\Dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDFD245-A130-4FB2-A8F1-B407DAD33B3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E49941D-29AF-4D4B-BD97-512C4574E0BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24780" yWindow="-2010" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Guitar</t>
   </si>
   <si>
     <t>Valli</t>
-  </si>
-  <si>
-    <t>Blubbeladf</t>
   </si>
 </sst>
 </file>
@@ -366,7 +363,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,9 +379,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
